--- a/data/trans_bre/P16B12-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B12-Clase-trans_bre.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 0,0</t>
+          <t>-38,82; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 0,0</t>
+          <t>-38,82; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 22,86</t>
+          <t>2,86; 24,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 29,62</t>
+          <t>2,94; 32,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,99</t>
+          <t>0,0; 5,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,14</t>
+          <t>0,0; 5,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,38</t>
+          <t>0,0; 5,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,43</t>
+          <t>0,0; 5,56</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 0,0</t>
+          <t>-25,84; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 0,0</t>
+          <t>-6,37; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,96</t>
+          <t>0,0; 9,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 0,0</t>
+          <t>-25,84; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 0,0</t>
+          <t>-6,37; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,06</t>
+          <t>0,0; 11,08</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 0,0</t>
+          <t>-4,44; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 0,0</t>
+          <t>-4,44; 0,0</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,17</t>
+          <t>-3,44; 2,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 0,0</t>
+          <t>-2,29; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,8</t>
+          <t>-1,13; 1,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 2,25</t>
+          <t>-3,49; 2,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 0,0</t>
+          <t>-2,29; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,91</t>
+          <t>-1,13; 1,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B12-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B12-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
